--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。本文件僅提供型號資訊，未提供電壓、容量或能量數據；切圖與 hints 搜尋均未獲其他欄位值。</t>
+          <t>頁碼採絕對 1-based。本文件主要語言為英文。僅 model_name 有切圖與整頁證據，其餘欄位在切圖與 hints 搜尋均未獲值。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
@@ -460,7 +460,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Page 1 (loc: cropped_image:model_name.png): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"
-Page 1 (loc: bbox(top_left, xywh): [146,678,469,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
+Page 1 (loc: bbox(top_left, xywh): [146,678,469,23]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。本文件主要語言為英文。僅 model_name 有切圖與整頁證據，其餘欄位在切圖與 hints 搜尋均未獲值。</t>
+          <t>頁碼採絕對 1-based。本文件主要語言為英文。僅 model_name 欄位有值，其餘欄位在切圖與 hints 搜尋均未獲值。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
@@ -460,7 +460,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Page 1 (loc: cropped_image:model_name.png): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"
-Page 1 (loc: bbox(top_left, xywh): [146,678,469,23]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
+Page 1 (loc: bbox(top_left, xywh): [138,678,492,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。本文件主要語言為英文。僅 model_name 欄位有值，其餘欄位在切圖與 hints 搜尋均未獲值。</t>
+          <t>頁碼採絕對 1-based。文件主要語言為英文。僅 model_name 欄位有值，其餘欄位在切圖與 hints 搜尋均未獲值。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
@@ -459,8 +459,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:model_name.png): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"
-Page 1 (loc: bbox(top_left, xywh): [138,678,492,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
+          <t>Page 1 (loc: bbox(top_left, xywh): [37,7,243,30]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
         </is>
       </c>
     </row>
@@ -537,7 +536,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。文件主要語言為英文。僅 model_name 欄位有值，其餘欄位在切圖與 hints 搜尋均未獲值。</t>
+          <t>頁碼採絕對 1-based。本文件主要語言為英文。僅在文件中找到型號資訊，其餘欄位切圖與 hints 搜尋均未獲值。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
@@ -459,7 +459,8 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Page 1 (loc: bbox(top_left, xywh): [37,7,243,30]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
+          <t>Page 1 (loc: bbox(top_left, xywh): [37,7,243,30]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"
+Page 1 (loc: bbox(top_left, xywh): [153,492,393,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
         </is>
       </c>
     </row>
@@ -536,7 +537,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。本文件主要語言為英文。僅在文件中找到型號資訊，其餘欄位切圖與 hints 搜尋均未獲值。</t>
+          <t>頁碼採絕對 1-based。本文件僅提供型號資訊，未出現電壓、容量或能量數值；切圖與 hints 搜尋均未獲值。主要語言為英文。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
@@ -459,8 +459,8 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Page 1 (loc: bbox(top_left, xywh): [37,7,243,30]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"
-Page 1 (loc: bbox(top_left, xywh): [153,492,393,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
+          <t>Page 1 (loc: cropped_image:model_name.png): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"
+Page 1 (loc: bbox(top_left, xywh): [153,678,459,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。本文件僅提供型號資訊，未出現電壓、容量或能量數值；切圖與 hints 搜尋均未獲值。主要語言為英文。</t>
+          <t>頁碼採絕對 1-based。文件主要語言為英文。僅 model_name 欄位有值，其餘欄位在切圖與 hints 搜尋均未獲值。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
@@ -460,7 +460,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Page 1 (loc: cropped_image:model_name.png): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"
-Page 1 (loc: bbox(top_left, xywh): [153,678,459,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
+Page 1 (loc: bbox(top_left, xywh): [138,678,493,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。文件主要語言為英文。僅 model_name 欄位有值，其餘欄位在切圖與 hints 搜尋均未獲值。</t>
+          <t>頁碼採絕對 1-based。本文件主要語言為英文。僅 model_name 欄位有值，其餘欄位在切圖與 hints 搜尋均未獲值。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
@@ -460,7 +460,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Page 1 (loc: cropped_image:model_name.png): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"
-Page 1 (loc: bbox(top_left, xywh): [138,678,493,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
+Page 1 (loc: bbox(top_left, xywh): [146,678,469,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
@@ -460,7 +460,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Page 1 (loc: cropped_image:model_name.png): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"
-Page 1 (loc: bbox(top_left, xywh): [146,678,469,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
+Page 1 (loc: bbox(top_left, xywh): [152,678,459,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。本文件主要語言為英文。僅 model_name 欄位有值，其餘欄位在切圖與 hints 搜尋均未獲值。</t>
+          <t>頁碼採絕對 1-based。本文件僅提供型號資訊，未出現 nominal voltage、typical/rated 容量或能量數值；切圖與 hints 搜尋均未獲值。主要語言為英文。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
@@ -460,7 +460,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Page 1 (loc: cropped_image:model_name.png): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"
-Page 1 (loc: bbox(top_left, xywh): [152,678,459,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
+Page 1 (loc: bbox(top_left, xywh): [161,678,413,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。本文件僅提供型號資訊，未出現 nominal voltage、typical/rated 容量或能量數值；切圖與 hints 搜尋均未獲值。主要語言為英文。</t>
+          <t>頁碼採絕對 1-based。本文件主要語言為英文。僅 model_name 欄位有值，其餘欄位切圖與 hints 搜尋均未獲值。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
@@ -459,8 +459,8 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Page 1 (loc: bbox(top_left, xywh): [0,0,317,49]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"
-Page 1 (loc: bbox(top_left, xywh): [256,492,512,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
+          <t>Page 1 (loc: cropped_image:model_name.png): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"
+Page 1 (loc: bbox(top_left, xywh): [131,678,503,28]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。本文件僅提供型號資訊，未出現電壓、容量或能量數據；切圖與 hints 搜尋均未獲值。</t>
+          <t>頁碼採絕對 1-based。本文件僅提供型號資訊，未出現電壓、容量或能量數值；切圖與 hints 搜尋均未獲值。主要語言為英文。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 BIS Letter.xlsx
@@ -460,7 +460,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Page 1 (loc: cropped_image:model_name.png): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"
-Page 1 (loc: bbox(top_left, xywh): [131,678,503,28]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
+Page 1 (loc: bbox(top_left, xywh): [146,678,469,22]): "[Brand -&gt; ASUS, Models -&gt; C41N2503]"</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。本文件僅提供型號資訊，未出現電壓、容量或能量數值；切圖與 hints 搜尋均未獲值。主要語言為英文。</t>
+          <t>頁碼採絕對 1-based。本文件僅提供型號資訊，未出現電壓、容量或能量數據；切圖與 hints 搜尋均未獲其他欄位值。</t>
         </is>
       </c>
     </row>
